--- a/wk22_sal.xlsx
+++ b/wk22_sal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwdec\Documents\pH-Conversion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F584818D-7689-46AA-B5F6-57126418291E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE96E12B-122D-426F-BF07-4C5FD33662DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{585150F8-92C4-4D47-8395-5C751CCEB578}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{585150F8-92C4-4D47-8395-5C751CCEB578}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>WK22-56</t>
   </si>
@@ -158,9 +158,6 @@
     <t>WK22-95</t>
   </si>
   <si>
-    <t>WW22-96</t>
-  </si>
-  <si>
     <t>WK22-97</t>
   </si>
   <si>
@@ -327,6 +324,174 @@
   </si>
   <si>
     <t>CMO-A-8</t>
+  </si>
+  <si>
+    <t>WK22-1</t>
+  </si>
+  <si>
+    <t>WK22-2</t>
+  </si>
+  <si>
+    <t>WK22-3</t>
+  </si>
+  <si>
+    <t>WK22-4</t>
+  </si>
+  <si>
+    <t>WK22-5</t>
+  </si>
+  <si>
+    <t>WK22-6</t>
+  </si>
+  <si>
+    <t>WK22-7</t>
+  </si>
+  <si>
+    <t>WK22-8</t>
+  </si>
+  <si>
+    <t>WK22-9</t>
+  </si>
+  <si>
+    <t>WK22-10</t>
+  </si>
+  <si>
+    <t>WK22-11</t>
+  </si>
+  <si>
+    <t>WK22-12</t>
+  </si>
+  <si>
+    <t>WK22-13</t>
+  </si>
+  <si>
+    <t>WK22-14</t>
+  </si>
+  <si>
+    <t>WK22-15</t>
+  </si>
+  <si>
+    <t>WK22-16</t>
+  </si>
+  <si>
+    <t>WK22-17</t>
+  </si>
+  <si>
+    <t>WK22-18</t>
+  </si>
+  <si>
+    <t>WK22-19</t>
+  </si>
+  <si>
+    <t>WK22-20</t>
+  </si>
+  <si>
+    <t>WK22-21</t>
+  </si>
+  <si>
+    <t>WK22-22</t>
+  </si>
+  <si>
+    <t>WK22-23</t>
+  </si>
+  <si>
+    <t>WK22-24</t>
+  </si>
+  <si>
+    <t>WK22-25</t>
+  </si>
+  <si>
+    <t>WK22-26</t>
+  </si>
+  <si>
+    <t>WK22-27</t>
+  </si>
+  <si>
+    <t>WK22-28</t>
+  </si>
+  <si>
+    <t>WK22-29</t>
+  </si>
+  <si>
+    <t>WK22-30</t>
+  </si>
+  <si>
+    <t>WK22-31</t>
+  </si>
+  <si>
+    <t>WK22-32</t>
+  </si>
+  <si>
+    <t>WK22-33</t>
+  </si>
+  <si>
+    <t>WK22-34</t>
+  </si>
+  <si>
+    <t>WK22-35</t>
+  </si>
+  <si>
+    <t>WK22-36</t>
+  </si>
+  <si>
+    <t>WK22-37</t>
+  </si>
+  <si>
+    <t>WK22-38</t>
+  </si>
+  <si>
+    <t>WK22-39</t>
+  </si>
+  <si>
+    <t>WK22-40</t>
+  </si>
+  <si>
+    <t>WK22-41</t>
+  </si>
+  <si>
+    <t>WK22-42</t>
+  </si>
+  <si>
+    <t>WK22-43</t>
+  </si>
+  <si>
+    <t>WK22-44</t>
+  </si>
+  <si>
+    <t>WK22-45</t>
+  </si>
+  <si>
+    <t>WK22-46</t>
+  </si>
+  <si>
+    <t>WK22-47</t>
+  </si>
+  <si>
+    <t>WK22-48</t>
+  </si>
+  <si>
+    <t>WK22-49</t>
+  </si>
+  <si>
+    <t>WK22-50</t>
+  </si>
+  <si>
+    <t>WK22-51</t>
+  </si>
+  <si>
+    <t>WK22-52</t>
+  </si>
+  <si>
+    <t>WK22-53</t>
+  </si>
+  <si>
+    <t>WK22-54</t>
+  </si>
+  <si>
+    <t>WK22-55</t>
+  </si>
+  <si>
+    <t>WK22-96</t>
   </si>
 </sst>
 </file>
@@ -690,789 +855,1226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F725D283-EFCC-433D-93CE-438093CA9C6E}">
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B2">
-        <v>33.266500000000001</v>
+        <v>33.596200000000003</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B3">
-        <v>32.590699999999998</v>
+        <v>32.428199999999997</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B4">
-        <v>32.560200000000002</v>
+        <v>31.775200000000002</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B5">
-        <v>32.386000000000003</v>
+        <v>31.882000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B6">
-        <v>32.050400000000003</v>
+        <v>30.155999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B7">
-        <v>31.398</v>
+        <v>29.881399999999999</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B8">
-        <v>30.040199999999999</v>
+        <v>29.435500000000001</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B9">
-        <v>27.711200000000002</v>
+        <v>29.628399999999999</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B10">
-        <v>33.073500000000003</v>
+        <v>33.266500000000001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B11">
-        <v>33.596200000000003</v>
+        <v>32.590699999999998</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B12">
-        <v>32.428199999999997</v>
+        <v>32.560200000000002</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B13">
-        <v>31.775200000000002</v>
+        <v>32.386000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B14">
-        <v>31.882000000000001</v>
+        <v>32.050400000000003</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B15">
-        <v>30.155999999999999</v>
+        <v>31.398</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B16">
-        <v>29.881399999999999</v>
+        <v>30.040199999999999</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B17">
-        <v>29.435500000000001</v>
+        <v>27.711200000000002</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B18">
-        <v>29.628399999999999</v>
+        <v>33.073500000000003</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="B19">
-        <v>22.748799999999999</v>
+        <v>29.497399999999999</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="B20">
-        <v>23.719100000000001</v>
+        <v>29.117799999999999</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="B21">
-        <v>24.868099999999998</v>
+        <v>29.418399999999998</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="B22">
-        <v>25.950900000000001</v>
+        <v>29.8674</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B23">
-        <v>21.253699999999998</v>
+        <v>28.5976</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="B24">
-        <v>20.703499999999998</v>
+        <v>27.462</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="B25">
-        <v>21.0626</v>
+        <v>26.8751</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="B26">
-        <v>20.636700000000001</v>
+        <v>26.910699999999999</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="B27">
-        <v>23.036100000000001</v>
+        <v>25.768599999999999</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="B28">
-        <v>20.7073</v>
+        <v>28.440200000000001</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="B29">
-        <v>21.6052</v>
+        <v>28.4178</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="B30">
-        <v>20.991099999999999</v>
+        <v>28.474699999999999</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="B31">
-        <v>22.1021</v>
+        <v>28.592199999999998</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B32">
-        <v>21.288</v>
+        <v>28.996500000000001</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="B33">
-        <v>22.067399999999999</v>
+        <v>28.411899999999999</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B34">
-        <v>20.639500000000002</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="B35">
-        <v>17.944400000000002</v>
+        <v>28.394300000000001</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="B36">
-        <v>21.467300000000002</v>
+        <v>28.530999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="B37">
-        <v>20.117000000000001</v>
+        <v>28.72</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="B38">
-        <v>20.214400000000001</v>
+        <v>28.3216</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="B39">
-        <v>21.4755</v>
+        <v>28.710899999999999</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="B40">
-        <v>25.293800000000001</v>
+        <v>28.353200000000001</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="B41">
-        <v>14.6296</v>
+        <v>28.5657</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="B42">
-        <v>8.9399999999999993E-2</v>
+        <v>28.395499999999998</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="B43">
-        <v>6.3670999999999998</v>
+        <v>28.489799999999999</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="B44">
-        <v>18.192699999999999</v>
+        <v>28.485900000000001</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="B45">
-        <v>21.0715</v>
+        <v>25.185600000000001</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="B46">
-        <v>20.397600000000001</v>
+        <v>25.991099999999999</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="B47">
-        <v>21.915700000000001</v>
+        <v>22.7148</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="B48">
-        <v>6.5796000000000001</v>
+        <v>24.134699999999999</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="B49">
-        <v>0.1186</v>
+        <v>24.320900000000002</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="B50">
-        <v>16.3264</v>
+        <v>24.3291</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="B51">
-        <v>0.1179</v>
+        <v>25.164300000000001</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="B52">
-        <v>18.621700000000001</v>
+        <v>28.365100000000002</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="B53">
-        <v>2.8022999999999998</v>
+        <v>29.631499999999999</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="B54">
-        <v>20.3081</v>
+        <v>29.845300000000002</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="B55">
-        <v>20.723199999999999</v>
+        <v>23.991800000000001</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="B56">
-        <v>24.257400000000001</v>
+        <v>23.751899999999999</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="B57">
-        <v>23.486899999999999</v>
+        <v>27.325199999999999</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="B58">
-        <v>22.487300000000001</v>
+        <v>24.490100000000002</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="B59">
-        <v>20.741399999999999</v>
+        <v>23.4407</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="B60">
-        <v>25.194199999999999</v>
+        <v>23.503699999999998</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="B61">
-        <v>24.5703</v>
+        <v>23.932500000000001</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="B62">
-        <v>17.440999999999999</v>
+        <v>24.238499999999998</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="B63">
-        <v>30.5242</v>
+        <v>26.250499999999999</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="B64">
-        <v>30.596800000000002</v>
+        <v>23.042300000000001</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="B65">
-        <v>29.344799999999999</v>
+        <v>23.327300000000001</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="B66">
-        <v>23.9072</v>
+        <v>23.6098</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="B67">
-        <v>22.7896</v>
+        <v>24.052</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="B68">
-        <v>21.070900000000002</v>
+        <v>24.215</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="B69">
-        <v>31.649799999999999</v>
+        <v>24.435700000000001</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="B70">
-        <v>30.2807</v>
+        <v>20.665600000000001</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="B71">
-        <v>29.241599999999998</v>
+        <v>1.11E-2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="B72">
-        <v>27.6906</v>
+        <v>18.8826</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="B73">
-        <v>25.1081</v>
+        <v>19.824000000000002</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="B74">
-        <v>23.9373</v>
+        <v>22.748824219999999</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B75">
-        <v>22.6492</v>
+        <v>23.7191224</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="B76">
-        <v>23.123699999999999</v>
+        <v>24.868124290000001</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="B77">
-        <v>24.0489</v>
+        <v>25.950852980000001</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="B78">
-        <v>31.1661</v>
+        <v>21.25365012</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="B79">
-        <v>29.547799999999999</v>
+        <v>20.703532840000001</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B80">
-        <v>28.726600000000001</v>
+        <v>21.062597530000001</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="B81">
-        <v>27.876799999999999</v>
+        <v>20.6367163</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="B82">
-        <v>25.425699999999999</v>
+        <v>23.03610303</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="B83">
-        <v>24.471299999999999</v>
+        <v>20.707316850000002</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B84">
-        <v>28.2775</v>
+        <v>21.605162910000001</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="B85">
-        <v>27.903300000000002</v>
+        <v>20.99111499</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="B86">
-        <v>27.320499999999999</v>
+        <v>22.102053590000001</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="B87">
-        <v>27.892600000000002</v>
+        <v>21.288003490000001</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="B88">
-        <v>27.850899999999999</v>
+        <v>22.067353600000001</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B89">
-        <v>28.769600000000001</v>
+        <v>20.639522670000002</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="B90">
-        <v>28.222000000000001</v>
+        <v>17.944372789999999</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="B91">
-        <v>27.638300000000001</v>
+        <v>21.467291589999999</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="B92">
-        <v>23.012699999999999</v>
+        <v>20.117007399999999</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="B93">
-        <v>27.5791</v>
+        <v>20.21440557</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="B94">
-        <v>27.511099999999999</v>
+        <v>21.475506809999999</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="B95">
-        <v>24.947199999999999</v>
+        <v>25.293791859999999</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="B96">
-        <v>26.0154</v>
+        <v>14.629590820000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97">
+        <v>8.9385536000000002E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>24</v>
+      </c>
+      <c r="B98">
+        <v>6.3670975360000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99">
+        <v>18.192667459999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>26</v>
+      </c>
+      <c r="B100">
+        <v>21.07152731</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>27</v>
+      </c>
+      <c r="B101">
+        <v>20.39755413</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>28</v>
+      </c>
+      <c r="B102">
+        <v>21.915714449999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103">
+        <v>6.5795788310000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>30</v>
+      </c>
+      <c r="B104">
+        <v>0.11855473399999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>31</v>
+      </c>
+      <c r="B105">
+        <v>16.326396679999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>32</v>
+      </c>
+      <c r="B106">
+        <v>0.11792989800000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107">
+        <v>18.62173151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>34</v>
+      </c>
+      <c r="B108">
+        <v>2.8022624299999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>35</v>
+      </c>
+      <c r="B109">
+        <v>20.30814664</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>36</v>
+      </c>
+      <c r="B110">
+        <v>20.72324725</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>37</v>
+      </c>
+      <c r="B111">
+        <v>24.257381429999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>38</v>
+      </c>
+      <c r="B112">
+        <v>23.48692424</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>39</v>
+      </c>
+      <c r="B113">
+        <v>22.487290560000002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>151</v>
+      </c>
+      <c r="B114">
+        <v>17.440965559999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>40</v>
+      </c>
+      <c r="B115">
+        <v>20.74137678</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>41</v>
+      </c>
+      <c r="B116">
+        <v>25.194184539999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>42</v>
+      </c>
+      <c r="B117">
+        <v>24.570329319999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>43</v>
+      </c>
+      <c r="B118">
+        <v>30.52421571</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>44</v>
+      </c>
+      <c r="B119">
+        <v>30.596773649999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>45</v>
+      </c>
+      <c r="B120">
+        <v>29.344793230000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>46</v>
+      </c>
+      <c r="B121">
+        <v>23.90723315</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>47</v>
+      </c>
+      <c r="B122">
+        <v>22.789588599999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>48</v>
+      </c>
+      <c r="B123">
+        <v>21.070915670000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>49</v>
+      </c>
+      <c r="B124">
+        <v>31.649807679999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>50</v>
+      </c>
+      <c r="B125">
+        <v>30.280742960000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>51</v>
+      </c>
+      <c r="B126">
+        <v>29.241555829999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>52</v>
+      </c>
+      <c r="B127">
+        <v>27.690621879999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>53</v>
+      </c>
+      <c r="B128">
+        <v>25.108142910000002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>54</v>
+      </c>
+      <c r="B129">
+        <v>23.937256900000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>55</v>
+      </c>
+      <c r="B130">
+        <v>22.649176199999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>56</v>
+      </c>
+      <c r="B131">
+        <v>23.123713649999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>57</v>
+      </c>
+      <c r="B132">
+        <v>24.048941339999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>58</v>
+      </c>
+      <c r="B133">
+        <v>31.16609712</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>59</v>
+      </c>
+      <c r="B134">
+        <v>29.54777863</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>60</v>
+      </c>
+      <c r="B135">
+        <v>28.72661072</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>61</v>
+      </c>
+      <c r="B136">
+        <v>27.87675613</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>62</v>
+      </c>
+      <c r="B137">
+        <v>25.425723000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>63</v>
+      </c>
+      <c r="B138">
+        <v>24.471295340000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>64</v>
+      </c>
+      <c r="B139">
+        <v>28.277471670000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>65</v>
+      </c>
+      <c r="B140">
+        <v>27.903288589999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>66</v>
+      </c>
+      <c r="B141">
+        <v>27.320465519999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>67</v>
+      </c>
+      <c r="B142">
+        <v>27.892624399999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>68</v>
+      </c>
+      <c r="B143">
+        <v>27.85092534</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>69</v>
+      </c>
+      <c r="B144">
+        <v>28.769642220000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>70</v>
+      </c>
+      <c r="B145">
+        <v>28.221957060000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>71</v>
+      </c>
+      <c r="B146">
+        <v>27.638299669999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>72</v>
+      </c>
+      <c r="B147">
+        <v>23.01272311</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>73</v>
+      </c>
+      <c r="B148">
+        <v>27.579114830000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>74</v>
+      </c>
+      <c r="B149">
+        <v>27.511117240000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>75</v>
+      </c>
+      <c r="B150">
+        <v>24.947176160000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>76</v>
+      </c>
+      <c r="B151">
+        <v>26.015376450000002</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B96">
-    <sortCondition ref="A1:A96"/>
-  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
